--- a/docentes/Rodríguez Román Leticia Estadisticos 2020.xlsx
+++ b/docentes/Rodríguez Román Leticia Estadisticos 2020.xlsx
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1217,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1240,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1263,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1286,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1309,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1332,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1355,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1378,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1401,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1424,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1447,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1470,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1493,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1539,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1562,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1585,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1608,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1654,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1677,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1700,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1723,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1746,7 +1746,7 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1769,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1792,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1815,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1838,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1861,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1884,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1930,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1976,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
